--- a/department.xlsx
+++ b/department.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norma\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5EC859E-C340-4F03-BB39-ED1B3F1AEA09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="132" windowWidth="9996" windowHeight="9996" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9870" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QEMP" sheetId="1" r:id="rId1"/>
@@ -285,11 +291,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -900,6 +906,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -946,7 +960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -978,9 +992,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1012,6 +1044,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1187,20 +1237,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:E27"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1234,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1251,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1268,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1285,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1302,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1319,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1336,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1353,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1370,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1387,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1404,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1421,7 +1471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1438,7 +1488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1455,7 +1505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1472,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1489,7 +1539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1506,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1523,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1540,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1557,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1574,7 +1624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1591,7 +1641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1608,7 +1658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1625,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1642,7 +1692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1659,6 +1709,7 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1666,19 +1717,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1694,7 +1746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1702,7 +1754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1710,7 +1762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1718,7 +1770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1726,7 +1778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1734,7 +1786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1742,7 +1794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1750,7 +1802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1758,7 +1810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1766,7 +1818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1774,7 +1826,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1782,7 +1834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1790,6 +1842,10 @@
         <v>49</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35"/>
+    <row r="17" x14ac:dyDescent="0.35"/>
+    <row r="18" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1797,19 +1853,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="20.33203125" customWidth="1"/>
+    <col min="1" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="4" width="20.36328125" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
@@ -1826,7 +1883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1843,7 +1900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1860,7 +1917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1877,7 +1934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1894,7 +1951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1911,7 +1968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1928,7 +1985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1945,7 +2002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1962,7 +2019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1979,7 +2036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1996,7 +2053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2013,7 +2070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2030,7 +2087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2047,7 +2104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2064,7 +2121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2081,6 +2138,8 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" x14ac:dyDescent="0.35"/>
+    <row r="18" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2088,16 +2147,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" hidden="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -2111,7 +2172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2125,7 +2186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2139,7 +2200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2153,7 +2214,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2167,7 +2228,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2181,7 +2242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2195,7 +2256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2209,7 +2270,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2223,7 +2284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2237,7 +2298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2251,7 +2312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -2265,7 +2326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2279,7 +2340,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -2293,7 +2354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -2307,7 +2368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -2321,7 +2382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -2335,6 +2396,8 @@
         <v>77</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2342,19 +2405,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
@@ -2365,7 +2428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>66</v>
       </c>
@@ -2376,7 +2439,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>69</v>
       </c>
@@ -2387,7 +2450,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
@@ -2398,7 +2461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>54</v>
       </c>
@@ -2409,7 +2472,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
@@ -2420,7 +2483,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>58</v>
       </c>
@@ -2431,7 +2494,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>57</v>
       </c>
@@ -2442,7 +2505,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>55</v>
       </c>
@@ -2453,7 +2516,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>75</v>
       </c>
@@ -2464,7 +2527,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>63</v>
       </c>
@@ -2475,7 +2538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>76</v>
       </c>
@@ -2486,7 +2549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>77</v>
       </c>
@@ -2497,7 +2560,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2508,7 +2571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>62</v>
       </c>
@@ -2519,7 +2582,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>53</v>
       </c>
@@ -2530,7 +2593,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>79</v>
       </c>
@@ -2541,7 +2604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>80</v>
       </c>
@@ -2552,7 +2615,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>60</v>
       </c>
@@ -2563,6 +2626,8 @@
         <v>71</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2570,20 +2635,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -2597,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2611,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2625,7 +2691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2639,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2653,6 +2719,9 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
